--- a/dienthoai.xlsx
+++ b/dienthoai.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Ten dien thoai</t>
   </si>
@@ -53,16 +53,172 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Vivo V23e</t>
+  </si>
+  <si>
+    <t>Super LCD</t>
+  </si>
+  <si>
+    <t>MonoChrome</t>
+  </si>
+  <si>
+    <t>TTQ</t>
+  </si>
+  <si>
+    <t>128GB</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>Li-Pov2</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>6.1inch</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
     <t>DIENTHOAI0</t>
   </si>
   <si>
     <t>OPPO A95</t>
   </si>
   <si>
-    <t>ClearBlack</t>
-  </si>
-  <si>
-    <t>Tele</t>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>1024GB</t>
+  </si>
+  <si>
+    <t>GLONASS</t>
+  </si>
+  <si>
+    <t>Ni-MH</t>
+  </si>
+  <si>
+    <t>Gom</t>
+  </si>
+  <si>
+    <t>6.5inch</t>
+  </si>
+  <si>
+    <t>DIENTHOAI1</t>
+  </si>
+  <si>
+    <t>LED-backlit</t>
+  </si>
+  <si>
+    <t>ToF</t>
+  </si>
+  <si>
+    <t>NextTook</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>LonL</t>
+  </si>
+  <si>
+    <t>DaBo</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>DIENTHOAI2</t>
+  </si>
+  <si>
+    <t>Xiomi Redmi 10</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>512GB</t>
+  </si>
+  <si>
+    <t>QZSS</t>
+  </si>
+  <si>
+    <t>Liquidmorphium</t>
+  </si>
+  <si>
+    <t>5.8inch</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>DIENTHOAI3</t>
+  </si>
+  <si>
+    <t>PQA</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>GALILEO</t>
+  </si>
+  <si>
+    <t>Li-Po</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>DIENTHOAI4</t>
+  </si>
+  <si>
+    <t>Xiomi 11T</t>
+  </si>
+  <si>
+    <t>IPS LCD</t>
+  </si>
+  <si>
+    <t>Snapdragon</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>GOOOGLE</t>
+  </si>
+  <si>
+    <t>DIENTHOAI5</t>
+  </si>
+  <si>
+    <t>Sam Sung A12</t>
+  </si>
+  <si>
+    <t>Nhua</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>DIENTHOAI6</t>
+  </si>
+  <si>
+    <t>IPS Quantun</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>DIENTHOAI7</t>
   </si>
   <si>
     <t>Exynos</t>
@@ -71,172 +227,16 @@
     <t>256GB</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Ni-MH</t>
-  </si>
-  <si>
-    <t>Nhua</t>
-  </si>
-  <si>
-    <t>6.1inch</t>
-  </si>
-  <si>
-    <t>XIAOMI</t>
-  </si>
-  <si>
-    <t>DIENTHOAI1</t>
-  </si>
-  <si>
-    <t>Iphone XR</t>
-  </si>
-  <si>
-    <t>Macro</t>
-  </si>
-  <si>
-    <t>32GB</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>Li-Pov2</t>
-  </si>
-  <si>
-    <t>5.8inch</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
-  </si>
-  <si>
-    <t>DIENTHOAI2</t>
-  </si>
-  <si>
-    <t>Sam Sung A12</t>
-  </si>
-  <si>
-    <t>IPS LCD</t>
-  </si>
-  <si>
-    <t>NextTook</t>
-  </si>
-  <si>
-    <t>16GB</t>
-  </si>
-  <si>
-    <t>LonL</t>
-  </si>
-  <si>
-    <t>Gom</t>
-  </si>
-  <si>
-    <t>6.5inch</t>
-  </si>
-  <si>
-    <t>DIENTHOAI3</t>
-  </si>
-  <si>
-    <t>Xiomi 11T</t>
-  </si>
-  <si>
-    <t>GLONASS</t>
+    <t>DIENTHOAI8</t>
+  </si>
+  <si>
+    <t>LithiumV1</t>
   </si>
   <si>
     <t>Kinh</t>
   </si>
   <si>
-    <t>GOOOGLE</t>
-  </si>
-  <si>
-    <t>DIENTHOAI4</t>
-  </si>
-  <si>
-    <t>Xiomi Redmi 10</t>
-  </si>
-  <si>
-    <t>MonoChrome</t>
-  </si>
-  <si>
-    <t>TTQ</t>
-  </si>
-  <si>
-    <t>128GB</t>
-  </si>
-  <si>
-    <t>QZSS</t>
-  </si>
-  <si>
-    <t>Thep</t>
-  </si>
-  <si>
-    <t>DIENTHOAI5</t>
-  </si>
-  <si>
-    <t>LED-backlit</t>
-  </si>
-  <si>
-    <t>1024GB</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>DIENTHOAI6</t>
-  </si>
-  <si>
-    <t>Vivo V23e</t>
-  </si>
-  <si>
-    <t>Kirin</t>
-  </si>
-  <si>
-    <t>LithiumV1</t>
-  </si>
-  <si>
-    <t>Liquidmorphium</t>
-  </si>
-  <si>
-    <t>VIVO</t>
-  </si>
-  <si>
-    <t>DIENTHOAI7</t>
-  </si>
-  <si>
-    <t>GALILEO</t>
-  </si>
-  <si>
-    <t>DIENTHOAI8</t>
-  </si>
-  <si>
-    <t>Super LCD</t>
-  </si>
-  <si>
-    <t>8GB</t>
-  </si>
-  <si>
-    <t>Li-Po</t>
-  </si>
-  <si>
     <t>DIENTHOAI9</t>
-  </si>
-  <si>
-    <t>TFT-LCD</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>Lithium Polymer</t>
-  </si>
-  <si>
-    <t>DaBo</t>
-  </si>
-  <si>
-    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -295,15 +295,15 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.05859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.94921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.76953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.7421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.5625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.5234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.69140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.85546875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.5234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.43359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="5.19921875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.28125" customWidth="true" bestFit="true"/>
@@ -381,14 +381,14 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -396,45 +396,45 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="K3" t="n">
+        <v>70.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -443,198 +443,198 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
+      <c r="K4" t="n">
+        <v>22.0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>80.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31.0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>82.0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -642,122 +642,122 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
-        <v>31</v>
+      <c r="K10" t="n">
+        <v>45.0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
